--- a/ResultsByUHF20230830/DailyProjections_citywide20230830.xlsx
+++ b/ResultsByUHF20230830/DailyProjections_citywide20230830.xlsx
@@ -458,57 +458,57 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5536 (3309, 9458)</t>
+          <t>13932 (9487, 20613)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>248 (180, 355)</t>
+          <t>670 (532, 854)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>36 (21, 64)</t>
+          <t>105 (66, 163)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>29 (15, 54)</t>
+          <t>88 (50, 142)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>6 (4, 11)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>5 (3, 8)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>3 (1, 5)</t>
+          <t>4 (2, 8)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>42 (25, 70)</t>
+          <t>109 (70, 164)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>35 (19, 60)</t>
+          <t>92 (54, 145)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>16 (9, 24)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>5 (3, 9)</t>
+          <t>13 (8, 19)</t>
         </is>
       </c>
     </row>
@@ -535,57 +535,57 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5542 (3314, 9477)</t>
+          <t>13881 (9405, 20619)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>248 (178, 358)</t>
+          <t>666 (524, 856)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>36 (20, 63)</t>
+          <t>104 (65, 162)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>29 (15, 54)</t>
+          <t>86 (49, 141)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6 (4, 10)</t>
+          <t>16 (10, 25)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>5 (3, 8)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3 (1, 5)</t>
+          <t>4 (2, 8)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>41 (25, 69)</t>
+          <t>109 (70, 165)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>34 (19, 59)</t>
+          <t>92 (54, 145)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>16 (10, 24)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>5 (3, 9)</t>
+          <t>13 (8, 19)</t>
         </is>
       </c>
     </row>
@@ -612,57 +612,57 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5536 (3303, 9583)</t>
+          <t>13821 (9310, 20695)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>248 (176, 362)</t>
+          <t>664 (518, 861)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>35 (20, 63)</t>
+          <t>102 (64, 161)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>28 (15, 54)</t>
+          <t>85 (49, 140)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>16 (10, 25)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>5 (3, 8)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3 (1, 5)</t>
+          <t>4 (2, 8)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>41 (24, 69)</t>
+          <t>109 (69, 165)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>34 (18, 59)</t>
+          <t>92 (54, 145)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>16 (10, 24)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>5 (3, 9)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
     </row>
@@ -689,57 +689,57 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5541 (3282, 9714)</t>
+          <t>13768 (9204, 20783)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>249 (174, 367)</t>
+          <t>663 (512, 866)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>35 (20, 63)</t>
+          <t>101 (63, 161)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>28 (15, 54)</t>
+          <t>84 (48, 140)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>16 (10, 25)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>5 (3, 8)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3 (1, 5)</t>
+          <t>4 (2, 8)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>40 (24, 68)</t>
+          <t>108 (69, 165)</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>33 (18, 58)</t>
+          <t>92 (53, 145)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>6 (4, 11)</t>
+          <t>16 (10, 24)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>5 (3, 9)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
     </row>
@@ -766,57 +766,57 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5562 (3264, 9847)</t>
+          <t>13742 (9101, 20852)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>250 (173, 372)</t>
+          <t>661 (507, 871)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>35 (20, 64)</t>
+          <t>100 (62, 160)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>28 (15, 54)</t>
+          <t>84 (47, 140)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>16 (9, 24)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5 (3, 8)</t>
+          <t>12 (7, 20)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3 (1, 5)</t>
+          <t>4 (2, 8)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>40 (23, 67)</t>
+          <t>108 (69, 165)</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>33 (17, 58)</t>
+          <t>91 (53, 145)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>6 (4, 11)</t>
+          <t>16 (10, 24)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>5 (3, 9)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
     </row>
@@ -843,57 +843,57 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5588 (3240, 9985)</t>
+          <t>13716 (8995, 20921)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>251 (172, 377)</t>
+          <t>660 (501, 875)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>35 (19, 64)</t>
+          <t>100 (61, 160)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>28 (15, 55)</t>
+          <t>83 (47, 139)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>15 (9, 24)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>12 (7, 19)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>4 (2, 8)</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>3 (1, 5)</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>39 (23, 67)</t>
+          <t>107 (68, 164)</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>32 (17, 57)</t>
+          <t>91 (52, 144)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>6 (4, 11)</t>
+          <t>16 (10, 24)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>5 (3, 9)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
     </row>
@@ -920,57 +920,57 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5621 (3212, 10128)</t>
+          <t>13698 (8886, 20984)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>252 (170, 382)</t>
+          <t>658 (495, 879)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>35 (19, 65)</t>
+          <t>99 (60, 160)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>29 (15, 55)</t>
+          <t>82 (46, 139)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>15 (9, 24)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>12 (7, 19)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>4 (2, 8)</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>3 (1, 5)</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>38 (22, 66)</t>
+          <t>107 (67, 164)</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>31 (17, 57)</t>
+          <t>90 (52, 144)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>6 (4, 10)</t>
+          <t>16 (10, 24)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>5 (3, 9)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
     </row>
@@ -997,57 +997,57 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5660 (3196, 10294)</t>
+          <t>13697 (8808, 21068)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>253 (169, 387)</t>
+          <t>657 (489, 883)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>35 (19, 65)</t>
+          <t>98 (59, 160)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>29 (15, 56)</t>
+          <t>82 (46, 139)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>5 (3, 10)</t>
+          <t>15 (9, 24)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>12 (7, 19)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>4 (2, 8)</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>3 (1, 5)</t>
-        </is>
-      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>38 (22, 66)</t>
+          <t>106 (66, 164)</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>31 (16, 57)</t>
+          <t>89 (51, 143)</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>16 (10, 24)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>5 (3, 8)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
     </row>
@@ -1074,57 +1074,57 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5720 (3186, 10474)</t>
+          <t>13708 (8738, 21189)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>255 (168, 393)</t>
+          <t>655 (483, 886)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>35 (19, 66)</t>
+          <t>98 (58, 160)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>29 (14, 57)</t>
+          <t>81 (45, 139)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>5 (3, 10)</t>
+          <t>15 (9, 24)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>12 (7, 19)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>4 (2, 8)</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>3 (1, 5)</t>
-        </is>
-      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>37 (21, 66)</t>
+          <t>105 (66, 163)</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>31 (16, 56)</t>
+          <t>88 (51, 143)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>16 (9, 24)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>5 (3, 8)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
     </row>
@@ -1151,57 +1151,57 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5773 (3170, 10651)</t>
+          <t>13712 (8663, 21262)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>256 (167, 399)</t>
+          <t>653 (477, 890)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>35 (19, 67)</t>
+          <t>97 (58, 160)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>29 (15, 57)</t>
+          <t>81 (44, 139)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>5 (3, 10)</t>
+          <t>15 (9, 24)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>11 (7, 19)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>4 (2, 8)</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>3 (1, 5)</t>
-        </is>
-      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>37 (21, 66)</t>
+          <t>104 (65, 163)</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>30 (16, 56)</t>
+          <t>88 (50, 142)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>16 (9, 24)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>5 (3, 8)</t>
+          <t>13 (7, 20)</t>
         </is>
       </c>
     </row>
@@ -1228,57 +1228,57 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5828 (3158, 10829)</t>
+          <t>13706 (8595, 21333)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>257 (166, 405)</t>
+          <t>652 (472, 894)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>35 (19, 68)</t>
+          <t>96 (57, 160)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>29 (14, 58)</t>
+          <t>80 (44, 139)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>5 (3, 10)</t>
+          <t>14 (8, 24)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>11 (7, 19)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>4 (2, 8)</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>2 (1, 5)</t>
-        </is>
-      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>37 (21, 66)</t>
+          <t>103 (64, 162)</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>30 (16, 56)</t>
+          <t>87 (49, 142)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>15 (9, 24)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>5 (3, 8)</t>
+          <t>12 (7, 20)</t>
         </is>
       </c>
     </row>
@@ -1305,57 +1305,57 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5880 (3145, 11003)</t>
+          <t>13700 (8522, 21372)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>259 (165, 412)</t>
+          <t>650 (466, 898)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>35 (19, 69)</t>
+          <t>96 (56, 160)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>29 (14, 59)</t>
+          <t>80 (43, 139)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>5 (3, 10)</t>
+          <t>14 (8, 23)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>11 (6, 19)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>4 (2, 8)</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>2 (1, 5)</t>
-        </is>
-      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>36 (20, 66)</t>
+          <t>103 (63, 162)</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>30 (15, 56)</t>
+          <t>86 (49, 142)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>15 (9, 24)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>5 (3, 8)</t>
+          <t>12 (7, 19)</t>
         </is>
       </c>
     </row>
@@ -1382,57 +1382,57 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5940 (3135, 11176)</t>
+          <t>13675 (8445, 21401)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>261 (164, 419)</t>
+          <t>648 (461, 902)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>36 (18, 70)</t>
+          <t>95 (55, 160)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>29 (14, 60)</t>
+          <t>79 (43, 139)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>5 (3, 10)</t>
+          <t>14 (8, 23)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>11 (6, 19)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>4 (2, 8)</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>2 (1, 5)</t>
-        </is>
-      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>36 (20, 66)</t>
+          <t>102 (62, 162)</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>30 (15, 56)</t>
+          <t>85 (48, 141)</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>15 (9, 24)</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>4 (2, 8)</t>
+          <t>12 (7, 19)</t>
         </is>
       </c>
     </row>
@@ -1459,57 +1459,57 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5993 (3127, 11344)</t>
+          <t>13662 (8372, 21441)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>262 (162, 426)</t>
+          <t>646 (455, 905)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>36 (18, 71)</t>
+          <t>95 (54, 160)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>30 (14, 61)</t>
+          <t>79 (42, 139)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>5 (3, 10)</t>
+          <t>14 (8, 23)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>11 (6, 19)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>4 (2, 8)</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2 (1, 5)</t>
-        </is>
-      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>36 (20, 66)</t>
+          <t>101 (62, 162)</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>30 (15, 56)</t>
+          <t>85 (47, 141)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>15 (9, 24)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>4 (2, 8)</t>
+          <t>12 (7, 19)</t>
         </is>
       </c>
     </row>
@@ -1536,57 +1536,57 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5519 (3306, 9284)</t>
+          <t>14406 (9850, 21212)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>245 (180, 347)</t>
+          <t>661 (531, 836)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>38 (22, 66)</t>
+          <t>114 (72, 176)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>31 (16, 56)</t>
+          <t>96 (55, 153)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>18 (11, 27)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5 (3, 9)</t>
+          <t>14 (8, 22)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>3 (1, 5)</t>
+          <t>4 (2, 7)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>44 (27, 72)</t>
+          <t>118 (75, 176)</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>37 (21, 63)</t>
+          <t>100 (59, 155)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>5 (3, 9)</t>
+          <t>13 (8, 21)</t>
         </is>
       </c>
     </row>
@@ -1613,57 +1613,57 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5497 (3300, 9271)</t>
+          <t>14295 (9725, 21151)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>243 (177, 348)</t>
+          <t>655 (521, 836)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>38 (21, 66)</t>
+          <t>113 (71, 175)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>30 (16, 56)</t>
+          <t>94 (54, 152)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>6 (4, 11)</t>
+          <t>17 (10, 27)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>5 (3, 9)</t>
+          <t>14 (8, 22)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3 (1, 5)</t>
+          <t>4 (2, 7)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>44 (26, 72)</t>
+          <t>118 (75, 176)</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>37 (20, 62)</t>
+          <t>100 (59, 155)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>17 (10, 26)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>5 (3, 9)</t>
+          <t>13 (8, 21)</t>
         </is>
       </c>
     </row>
@@ -1690,57 +1690,57 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5474 (3281, 9342)</t>
+          <t>14181 (9588, 21146)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>242 (174, 350)</t>
+          <t>650 (512, 838)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>37 (21, 65)</t>
+          <t>111 (69, 174)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>30 (15, 55)</t>
+          <t>93 (53, 151)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>6 (4, 11)</t>
+          <t>17 (10, 27)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>5 (3, 9)</t>
+          <t>14 (8, 21)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3 (1, 5)</t>
+          <t>4 (2, 7)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>43 (26, 71)</t>
+          <t>118 (75, 177)</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>36 (20, 61)</t>
+          <t>100 (59, 155)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>17 (10, 26)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>5 (3, 9)</t>
+          <t>14 (8, 21)</t>
         </is>
       </c>
     </row>
@@ -1767,57 +1767,57 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5453 (3255, 9437)</t>
+          <t>14080 (9447, 21154)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>242 (171, 353)</t>
+          <t>646 (504, 840)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>36 (21, 65)</t>
+          <t>110 (68, 173)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>30 (15, 55)</t>
+          <t>92 (52, 151)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>6 (4, 11)</t>
+          <t>17 (10, 27)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>5 (3, 8)</t>
+          <t>13 (8, 21)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3 (1, 5)</t>
+          <t>4 (2, 7)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>43 (25, 71)</t>
+          <t>117 (75, 177)</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>35 (19, 61)</t>
+          <t>99 (58, 155)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>17 (10, 26)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>5 (3, 9)</t>
+          <t>14 (8, 21)</t>
         </is>
       </c>
     </row>
@@ -1844,57 +1844,57 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5451 (3222, 9538)</t>
+          <t>13983 (9298, 21146)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>241 (169, 357)</t>
+          <t>641 (495, 841)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>36 (20, 65)</t>
+          <t>109 (67, 173)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>29 (15, 55)</t>
+          <t>91 (51, 150)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>17 (10, 26)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>5 (3, 8)</t>
+          <t>13 (8, 21)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>3 (1, 5)</t>
+          <t>4 (2, 7)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>42 (25, 70)</t>
+          <t>117 (74, 177)</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>35 (19, 60)</t>
+          <t>99 (58, 155)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>17 (10, 26)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>5 (3, 9)</t>
+          <t>14 (8, 21)</t>
         </is>
       </c>
     </row>
@@ -1921,57 +1921,57 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5459 (3190, 9642)</t>
+          <t>13903 (9153, 21142)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>241 (166, 360)</t>
+          <t>637 (487, 842)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>36 (20, 65)</t>
+          <t>107 (66, 172)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>29 (15, 55)</t>
+          <t>90 (51, 149)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>16 (10, 26)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>5 (3, 8)</t>
+          <t>13 (8, 21)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>3 (1, 5)</t>
+          <t>4 (2, 7)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>41 (24, 69)</t>
+          <t>116 (74, 177)</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>34 (18, 60)</t>
+          <t>98 (57, 155)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>7 (4, 11)</t>
+          <t>17 (10, 26)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>5 (3, 9)</t>
+          <t>14 (8, 21)</t>
         </is>
       </c>
     </row>
@@ -1998,57 +1998,57 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5470 (3156, 9751)</t>
+          <t>13829 (9021, 21135)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>241 (164, 363)</t>
+          <t>633 (479, 843)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>35 (20, 65)</t>
+          <t>106 (64, 171)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>29 (15, 56)</t>
+          <t>89 (50, 148)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>16 (9, 26)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>5 (2, 8)</t>
+          <t>13 (7, 21)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2 (1, 5)</t>
+          <t>4 (2, 7)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>41 (24, 69)</t>
+          <t>115 (73, 176)</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>33 (18, 59)</t>
+          <t>97 (56, 155)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>6 (4, 11)</t>
+          <t>17 (10, 26)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>5 (3, 9)</t>
+          <t>14 (8, 21)</t>
         </is>
       </c>
     </row>
@@ -2075,57 +2075,57 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5486 (3125, 9862)</t>
+          <t>13755 (8891, 21106)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>241 (162, 367)</t>
+          <t>628 (470, 843)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>35 (19, 65)</t>
+          <t>105 (63, 170)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>29 (15, 56)</t>
+          <t>87 (49, 148)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>16 (9, 26)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>4 (2, 8)</t>
+          <t>13 (7, 20)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2 (1, 5)</t>
+          <t>4 (2, 7)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>40 (23, 68)</t>
+          <t>114 (72, 176)</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>33 (17, 59)</t>
+          <t>96 (56, 154)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>6 (4, 11)</t>
+          <t>17 (10, 26)</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>5 (3, 9)</t>
+          <t>13 (8, 21)</t>
         </is>
       </c>
     </row>
@@ -2152,57 +2152,57 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5509 (3096, 9981)</t>
+          <t>13678 (8757, 21087)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>241 (161, 371)</t>
+          <t>623 (463, 844)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>35 (19, 66)</t>
+          <t>103 (62, 169)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>29 (14, 56)</t>
+          <t>86 (48, 147)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>16 (9, 25)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>4 (2, 8)</t>
+          <t>12 (7, 20)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2 (1, 5)</t>
+          <t>4 (2, 7)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>39 (23, 68)</t>
+          <t>113 (71, 175)</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>32 (17, 58)</t>
+          <t>95 (55, 154)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>6 (4, 11)</t>
+          <t>17 (10, 26)</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>5 (3, 9)</t>
+          <t>13 (8, 21)</t>
         </is>
       </c>
     </row>
@@ -2229,57 +2229,57 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5528 (3070, 10108)</t>
+          <t>13616 (8629, 21045)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>241 (159, 375)</t>
+          <t>619 (455, 843)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>35 (19, 66)</t>
+          <t>102 (60, 169)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>29 (14, 57)</t>
+          <t>85 (47, 146)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>5 (3, 10)</t>
+          <t>15 (9, 25)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>4 (2, 8)</t>
+          <t>12 (7, 20)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2 (1, 5)</t>
+          <t>4 (2, 7)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>39 (22, 68)</t>
+          <t>112 (70, 175)</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>32 (17, 58)</t>
+          <t>95 (54, 153)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>16 (10, 26)</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>5 (3, 9)</t>
+          <t>13 (8, 21)</t>
         </is>
       </c>
     </row>
@@ -2306,57 +2306,57 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5549 (3038, 10220)</t>
+          <t>13532 (8505, 21011)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>241 (157, 379)</t>
+          <t>614 (447, 843)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>35 (18, 67)</t>
+          <t>101 (59, 168)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>29 (14, 57)</t>
+          <t>84 (46, 145)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>5 (3, 10)</t>
+          <t>15 (9, 25)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>4 (2, 8)</t>
+          <t>12 (7, 20)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2 (1, 5)</t>
+          <t>4 (2, 7)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>38 (22, 67)</t>
+          <t>111 (69, 174)</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>31 (16, 58)</t>
+          <t>94 (53, 152)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>16 (10, 26)</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>5 (3, 8)</t>
+          <t>13 (8, 21)</t>
         </is>
       </c>
     </row>
@@ -2383,57 +2383,57 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5573 (3015, 10336)</t>
+          <t>13451 (8383, 20951)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>241 (155, 384)</t>
+          <t>609 (439, 843)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>35 (18, 67)</t>
+          <t>100 (58, 167)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>29 (14, 58)</t>
+          <t>83 (45, 144)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>5 (3, 10)</t>
+          <t>15 (8, 25)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>4 (2, 8)</t>
+          <t>12 (7, 20)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2 (1, 5)</t>
+          <t>4 (2, 7)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>38 (21, 67)</t>
+          <t>110 (68, 173)</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>31 (16, 58)</t>
+          <t>93 (53, 152)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>16 (9, 26)</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>5 (3, 8)</t>
+          <t>13 (8, 21)</t>
         </is>
       </c>
     </row>
@@ -2460,57 +2460,57 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5598 (2987, 10457)</t>
+          <t>13355 (8265, 20888)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>241 (154, 389)</t>
+          <t>604 (431, 842)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>35 (18, 67)</t>
+          <t>98 (57, 166)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>29 (14, 58)</t>
+          <t>82 (44, 144)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>5 (3, 10)</t>
+          <t>15 (8, 25)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>4 (2, 8)</t>
+          <t>12 (6, 20)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2 (1, 5)</t>
+          <t>4 (2, 7)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>37 (21, 67)</t>
+          <t>109 (67, 173)</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>31 (16, 57)</t>
+          <t>92 (52, 151)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>16 (9, 26)</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>5 (3, 8)</t>
+          <t>13 (7, 21)</t>
         </is>
       </c>
     </row>
@@ -2537,57 +2537,57 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5627 (2964, 10576)</t>
+          <t>13276 (8150, 20806)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>242 (152, 394)</t>
+          <t>599 (424, 841)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>34 (18, 68)</t>
+          <t>97 (55, 164)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>28 (14, 58)</t>
+          <t>81 (42, 142)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>5 (3, 10)</t>
+          <t>14 (8, 25)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>4 (2, 8)</t>
+          <t>11 (6, 20)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2 (1, 5)</t>
+          <t>4 (2, 7)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>37 (20, 67)</t>
+          <t>108 (66, 172)</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>30 (15, 57)</t>
+          <t>91 (51, 150)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>6 (3, 10)</t>
+          <t>16 (9, 26)</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>5 (2, 8)</t>
+          <t>13 (7, 21)</t>
         </is>
       </c>
     </row>
@@ -2689,42 +2689,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>264 (122, 544)</t>
+          <t>757 (387, 1408)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>216 (84, 484)</t>
+          <t>649 (284, 1281)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>32 (13, 73)</t>
+          <t>81 (35, 171)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>30 (15, 56)</t>
+          <t>76 (42, 132)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>264 (122, 544)</t>
+          <t>757 (387, 1408)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>216 (84, 484)</t>
+          <t>649 (284, 1281)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>32 (13, 73)</t>
+          <t>81 (35, 171)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>30 (15, 56)</t>
+          <t>76 (42, 132)</t>
         </is>
       </c>
     </row>
@@ -2751,42 +2751,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>258 (119, 537)</t>
+          <t>750 (382, 1404)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>212 (81, 477)</t>
+          <t>642 (278, 1274)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>31 (13, 72)</t>
+          <t>81 (35, 172)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>29 (15, 55)</t>
+          <t>77 (42, 133)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>258 (119, 537)</t>
+          <t>750 (382, 1404)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>212 (81, 477)</t>
+          <t>642 (278, 1274)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>31 (13, 72)</t>
+          <t>81 (35, 172)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>29 (15, 55)</t>
+          <t>77 (42, 133)</t>
         </is>
       </c>
     </row>
@@ -2813,42 +2813,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>253 (116, 531)</t>
+          <t>743 (376, 1398)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>207 (79, 471)</t>
+          <t>634 (273, 1267)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>31 (13, 72)</t>
+          <t>81 (34, 172)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>29 (15, 55)</t>
+          <t>77 (42, 133)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>253 (116, 531)</t>
+          <t>743 (376, 1398)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>207 (79, 471)</t>
+          <t>634 (273, 1267)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>31 (13, 72)</t>
+          <t>81 (34, 172)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>29 (15, 55)</t>
+          <t>77 (42, 133)</t>
         </is>
       </c>
     </row>
@@ -2875,42 +2875,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>249 (113, 525)</t>
+          <t>736 (370, 1391)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>203 (77, 466)</t>
+          <t>627 (267, 1260)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>31 (12, 71)</t>
+          <t>80 (34, 172)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>28 (14, 54)</t>
+          <t>76 (41, 133)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>249 (113, 525)</t>
+          <t>736 (370, 1391)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>203 (77, 466)</t>
+          <t>627 (267, 1260)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>31 (12, 71)</t>
+          <t>80 (34, 172)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>28 (14, 54)</t>
+          <t>76 (41, 133)</t>
         </is>
       </c>
     </row>
@@ -2937,42 +2937,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>245 (111, 521)</t>
+          <t>728 (364, 1385)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>200 (75, 461)</t>
+          <t>620 (263, 1253)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>30 (12, 70)</t>
+          <t>80 (34, 172)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>28 (14, 54)</t>
+          <t>76 (41, 133)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>245 (111, 521)</t>
+          <t>728 (364, 1385)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>200 (75, 461)</t>
+          <t>620 (263, 1253)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>30 (12, 70)</t>
+          <t>80 (34, 172)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>28 (14, 54)</t>
+          <t>76 (41, 133)</t>
         </is>
       </c>
     </row>
@@ -2999,42 +2999,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>242 (109, 518)</t>
+          <t>721 (359, 1378)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>197 (74, 458)</t>
+          <t>612 (258, 1246)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>30 (12, 70)</t>
+          <t>79 (33, 171)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>28 (14, 53)</t>
+          <t>75 (40, 133)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>242 (109, 518)</t>
+          <t>721 (359, 1378)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>197 (74, 458)</t>
+          <t>612 (258, 1246)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>30 (12, 70)</t>
+          <t>79 (33, 171)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>28 (14, 53)</t>
+          <t>75 (40, 133)</t>
         </is>
       </c>
     </row>
@@ -3061,42 +3061,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>239 (107, 515)</t>
+          <t>714 (353, 1371)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>195 (73, 456)</t>
+          <t>606 (254, 1240)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>29 (12, 69)</t>
+          <t>78 (33, 170)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>27 (14, 52)</t>
+          <t>75 (40, 132)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>239 (107, 515)</t>
+          <t>714 (353, 1371)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>195 (73, 456)</t>
+          <t>606 (254, 1240)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>29 (12, 69)</t>
+          <t>78 (33, 170)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>27 (14, 52)</t>
+          <t>75 (40, 132)</t>
         </is>
       </c>
     </row>
@@ -3123,42 +3123,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>237 (106, 514)</t>
+          <t>707 (348, 1366)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>194 (72, 455)</t>
+          <t>600 (249, 1233)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>29 (11, 68)</t>
+          <t>77 (32, 169)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>26 (13, 52)</t>
+          <t>74 (39, 131)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>237 (106, 514)</t>
+          <t>707 (348, 1366)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>194 (72, 455)</t>
+          <t>600 (249, 1233)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>29 (11, 68)</t>
+          <t>77 (32, 169)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>26 (13, 52)</t>
+          <t>74 (39, 131)</t>
         </is>
       </c>
     </row>
@@ -3185,42 +3185,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>235 (105, 514)</t>
+          <t>701 (343, 1359)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>193 (72, 456)</t>
+          <t>594 (245, 1227)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>28 (11, 67)</t>
+          <t>76 (32, 168)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>26 (13, 51)</t>
+          <t>73 (39, 130)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>235 (105, 514)</t>
+          <t>701 (343, 1359)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>193 (72, 456)</t>
+          <t>594 (245, 1227)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>28 (11, 67)</t>
+          <t>76 (32, 168)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>26 (13, 51)</t>
+          <t>73 (39, 130)</t>
         </is>
       </c>
     </row>
@@ -3247,42 +3247,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>234 (104, 515)</t>
+          <t>694 (338, 1352)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>192 (72, 457)</t>
+          <t>588 (241, 1222)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>28 (11, 67)</t>
+          <t>75 (31, 167)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>26 (13, 51)</t>
+          <t>72 (38, 129)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>234 (104, 515)</t>
+          <t>694 (338, 1352)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>192 (72, 457)</t>
+          <t>588 (241, 1222)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>28 (11, 67)</t>
+          <t>75 (31, 167)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>26 (13, 51)</t>
+          <t>72 (38, 129)</t>
         </is>
       </c>
     </row>
@@ -3309,42 +3309,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>233 (103, 517)</t>
+          <t>688 (333, 1347)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>192 (71, 459)</t>
+          <t>582 (237, 1216)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>27 (11, 66)</t>
+          <t>74 (30, 166)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>25 (12, 51)</t>
+          <t>71 (37, 129)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>233 (103, 517)</t>
+          <t>688 (333, 1347)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>192 (71, 459)</t>
+          <t>582 (237, 1216)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>27 (11, 66)</t>
+          <t>74 (30, 166)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>25 (12, 51)</t>
+          <t>71 (37, 129)</t>
         </is>
       </c>
     </row>
@@ -3371,42 +3371,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>233 (102, 520)</t>
+          <t>681 (328, 1341)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>192 (71, 461)</t>
+          <t>577 (234, 1212)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>27 (11, 66)</t>
+          <t>74 (30, 164)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>25 (12, 50)</t>
+          <t>70 (37, 128)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>233 (102, 520)</t>
+          <t>681 (328, 1341)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>192 (71, 461)</t>
+          <t>577 (234, 1212)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>27 (11, 66)</t>
+          <t>74 (30, 164)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>25 (12, 50)</t>
+          <t>70 (37, 128)</t>
         </is>
       </c>
     </row>
@@ -3433,42 +3433,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>233 (102, 524)</t>
+          <t>675 (322, 1337)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>192 (71, 465)</t>
+          <t>571 (230, 1207)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>27 (10, 66)</t>
+          <t>73 (29, 163)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>25 (12, 50)</t>
+          <t>69 (36, 127)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>233 (102, 524)</t>
+          <t>675 (322, 1337)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>192 (71, 465)</t>
+          <t>571 (230, 1207)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>27 (10, 66)</t>
+          <t>73 (29, 163)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>25 (12, 50)</t>
+          <t>69 (36, 127)</t>
         </is>
       </c>
     </row>
@@ -3495,42 +3495,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>233 (101, 527)</t>
+          <t>669 (317, 1332)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>193 (71, 469)</t>
+          <t>565 (226, 1202)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>27 (10, 65)</t>
+          <t>72 (29, 162)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>24 (12, 50)</t>
+          <t>69 (35, 126)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>233 (101, 527)</t>
+          <t>669 (317, 1332)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>193 (71, 469)</t>
+          <t>565 (226, 1202)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>27 (10, 65)</t>
+          <t>72 (29, 162)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>24 (12, 50)</t>
+          <t>69 (35, 126)</t>
         </is>
       </c>
     </row>
@@ -3557,42 +3557,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>285 (134, 580)</t>
+          <t>817 (419, 1520)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>237 (93, 518)</t>
+          <t>696 (312, 1381)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>34 (14, 76)</t>
+          <t>87 (37, 182)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>31 (16, 59)</t>
+          <t>81 (44, 142)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>285 (134, 580)</t>
+          <t>817 (419, 1520)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>237 (93, 518)</t>
+          <t>696 (312, 1381)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>34 (14, 76)</t>
+          <t>87 (37, 182)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>31 (16, 59)</t>
+          <t>81 (44, 142)</t>
         </is>
       </c>
     </row>
@@ -3619,42 +3619,42 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>279 (129, 573)</t>
+          <t>810 (413, 1517)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>231 (89, 511)</t>
+          <t>689 (306, 1377)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>33 (13, 75)</t>
+          <t>86 (37, 183)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>31 (16, 58)</t>
+          <t>82 (44, 143)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>279 (129, 573)</t>
+          <t>810 (413, 1517)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>231 (89, 511)</t>
+          <t>689 (306, 1377)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>33 (13, 75)</t>
+          <t>86 (37, 183)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>31 (16, 58)</t>
+          <t>82 (44, 143)</t>
         </is>
       </c>
     </row>
@@ -3681,42 +3681,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>273 (126, 566)</t>
+          <t>803 (408, 1511)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>225 (86, 504)</t>
+          <t>682 (301, 1371)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>33 (13, 75)</t>
+          <t>86 (37, 184)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>31 (16, 58)</t>
+          <t>81 (44, 143)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>273 (126, 566)</t>
+          <t>803 (408, 1511)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>225 (86, 504)</t>
+          <t>682 (301, 1371)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>33 (13, 75)</t>
+          <t>86 (37, 184)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>31 (16, 58)</t>
+          <t>81 (44, 143)</t>
         </is>
       </c>
     </row>
@@ -3743,42 +3743,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>268 (122, 560)</t>
+          <t>796 (402, 1505)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>220 (83, 498)</t>
+          <t>675 (296, 1364)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>32 (13, 74)</t>
+          <t>86 (36, 184)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>30 (16, 57)</t>
+          <t>81 (44, 143)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>268 (122, 560)</t>
+          <t>796 (402, 1505)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>220 (83, 498)</t>
+          <t>675 (296, 1364)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>32 (13, 74)</t>
+          <t>86 (36, 184)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>30 (16, 57)</t>
+          <t>81 (44, 143)</t>
         </is>
       </c>
     </row>
@@ -3805,42 +3805,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>262 (119, 554)</t>
+          <t>788 (396, 1497)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>215 (81, 492)</t>
+          <t>667 (290, 1357)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>32 (13, 73)</t>
+          <t>85 (36, 184)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>30 (15, 57)</t>
+          <t>81 (43, 143)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>262 (119, 554)</t>
+          <t>788 (396, 1497)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>215 (81, 492)</t>
+          <t>667 (290, 1357)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>32 (13, 73)</t>
+          <t>85 (36, 184)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>30 (15, 57)</t>
+          <t>81 (43, 143)</t>
         </is>
       </c>
     </row>
@@ -3867,42 +3867,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>258 (116, 549)</t>
+          <t>780 (390, 1490)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>211 (79, 488)</t>
+          <t>659 (285, 1349)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>31 (12, 72)</t>
+          <t>84 (35, 183)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>29 (15, 56)</t>
+          <t>80 (43, 142)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>258 (116, 549)</t>
+          <t>780 (390, 1490)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>211 (79, 488)</t>
+          <t>659 (285, 1349)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>31 (12, 72)</t>
+          <t>84 (35, 183)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>29 (15, 56)</t>
+          <t>80 (43, 142)</t>
         </is>
       </c>
     </row>
@@ -3929,42 +3929,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>253 (114, 544)</t>
+          <t>772 (383, 1482)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>208 (78, 484)</t>
+          <t>651 (280, 1341)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>31 (12, 71)</t>
+          <t>83 (35, 182)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>29 (14, 55)</t>
+          <t>79 (42, 142)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>253 (114, 544)</t>
+          <t>772 (383, 1482)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>208 (78, 484)</t>
+          <t>651 (280, 1341)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>31 (12, 71)</t>
+          <t>83 (35, 182)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>29 (14, 55)</t>
+          <t>79 (42, 142)</t>
         </is>
       </c>
     </row>
@@ -3991,42 +3991,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>250 (111, 541)</t>
+          <t>763 (376, 1473)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>205 (76, 480)</t>
+          <t>644 (274, 1332)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>30 (12, 71)</t>
+          <t>82 (34, 181)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>28 (14, 54)</t>
+          <t>78 (42, 141)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>250 (111, 541)</t>
+          <t>763 (376, 1473)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>205 (76, 480)</t>
+          <t>644 (274, 1332)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>30 (12, 71)</t>
+          <t>82 (34, 181)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>28 (14, 54)</t>
+          <t>78 (42, 141)</t>
         </is>
       </c>
     </row>
@@ -4053,42 +4053,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>247 (109, 538)</t>
+          <t>755 (370, 1464)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>202 (75, 478)</t>
+          <t>636 (268, 1323)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>30 (11, 70)</t>
+          <t>81 (33, 180)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>27 (14, 54)</t>
+          <t>77 (41, 140)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>247 (109, 538)</t>
+          <t>755 (370, 1464)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>202 (75, 478)</t>
+          <t>636 (268, 1323)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>30 (11, 70)</t>
+          <t>81 (33, 180)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>27 (14, 54)</t>
+          <t>77 (41, 140)</t>
         </is>
       </c>
     </row>
@@ -4115,42 +4115,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>244 (107, 536)</t>
+          <t>746 (362, 1455)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>200 (74, 476)</t>
+          <t>628 (263, 1313)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>29 (11, 69)</t>
+          <t>80 (33, 179)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>27 (13, 53)</t>
+          <t>76 (40, 139)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>244 (107, 536)</t>
+          <t>746 (362, 1455)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>200 (74, 476)</t>
+          <t>628 (263, 1313)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>29 (11, 69)</t>
+          <t>80 (33, 179)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>27 (13, 53)</t>
+          <t>76 (40, 139)</t>
         </is>
       </c>
     </row>
@@ -4177,42 +4177,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>241 (106, 535)</t>
+          <t>736 (355, 1445)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>198 (73, 475)</t>
+          <t>619 (257, 1304)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>28 (11, 68)</t>
+          <t>79 (32, 177)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>26 (13, 53)</t>
+          <t>75 (39, 138)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>241 (106, 535)</t>
+          <t>736 (355, 1445)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>198 (73, 475)</t>
+          <t>619 (257, 1304)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>28 (11, 68)</t>
+          <t>79 (32, 177)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>26 (13, 53)</t>
+          <t>75 (39, 138)</t>
         </is>
       </c>
     </row>
@@ -4239,42 +4239,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>239 (104, 534)</t>
+          <t>726 (348, 1436)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>197 (72, 475)</t>
+          <t>610 (251, 1295)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>28 (11, 68)</t>
+          <t>78 (31, 176)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>26 (13, 52)</t>
+          <t>74 (38, 137)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>239 (104, 534)</t>
+          <t>726 (348, 1436)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>197 (72, 475)</t>
+          <t>610 (251, 1295)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>28 (11, 68)</t>
+          <t>78 (31, 176)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>26 (13, 52)</t>
+          <t>74 (38, 137)</t>
         </is>
       </c>
     </row>
@@ -4301,42 +4301,42 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>237 (102, 534)</t>
+          <t>716 (341, 1425)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>195 (71, 474)</t>
+          <t>602 (245, 1284)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>28 (10, 67)</t>
+          <t>77 (31, 174)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>25 (12, 52)</t>
+          <t>73 (38, 136)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>237 (102, 534)</t>
+          <t>716 (341, 1425)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>195 (71, 474)</t>
+          <t>602 (245, 1284)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>28 (10, 67)</t>
+          <t>77 (31, 174)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>25 (12, 52)</t>
+          <t>73 (38, 136)</t>
         </is>
       </c>
     </row>
@@ -4363,42 +4363,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>235 (101, 534)</t>
+          <t>706 (334, 1413)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>193 (70, 475)</t>
+          <t>592 (240, 1273)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>27 (10, 66)</t>
+          <t>75 (30, 172)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>25 (12, 52)</t>
+          <t>72 (37, 134)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>235 (101, 534)</t>
+          <t>706 (334, 1413)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>193 (70, 475)</t>
+          <t>592 (240, 1273)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>27 (10, 66)</t>
+          <t>75 (30, 172)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>25 (12, 52)</t>
+          <t>72 (37, 134)</t>
         </is>
       </c>
     </row>
